--- a/src/test/resources/ExcelData/ExcelData.xlsx
+++ b/src/test/resources/ExcelData/ExcelData.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bassa\eclipse-workspace\CucumberJavaProject\src\test\resources\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bassa\eclipse-workspace\Team18_LMSProject\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B3B7F-434A-45F5-B0ED-E403C4C42153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CD434-E175-41EF-B0C9-F4ED015B84F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20895" yWindow="-17715" windowWidth="17280" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Register" sheetId="2" r:id="rId2"/>
-    <sheet name="PythonCode" sheetId="3" r:id="rId3"/>
+    <sheet name="User" sheetId="4" r:id="rId2"/>
+    <sheet name="Program" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -35,112 +35,12 @@
   <si>
     <t>Project321@</t>
   </si>
-  <si>
-    <t>confirmpassword</t>
-  </si>
-  <si>
-    <t>dsalgoproject811</t>
-  </si>
-  <si>
-    <t>pythonCode</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>print("hello World");</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>hello cool cukes</t>
-  </si>
-  <si>
-    <t>def search(input_list, num):
-if(num in input_list):
-print("Element Found")
-\b
-\b
-else:
-print("Not Found")
-\b
-\b
-\b
-\b
-search([12, 23, 45, 67, 6, 90] , 12)</t>
-  </si>
-  <si>
-    <t>Element Found</t>
-  </si>
-  <si>
-    <t>submission success</t>
-  </si>
-  <si>
-    <t>def findMaxConsecutiveOnes(nums) :
-count = 0
-result = 0
-for i in range(0, len(nums)):
-if (nums[i] == 0):
-count = 0
-\b
-\b
-else:
-count+= 1
-\b
-\b
-result = max(result, count)
-\b
-\b
-print(result)
-\b
-\b
-findMaxConsecutiveOnes([1,0,1,1,0,1])</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>def findNumbers(nums):
-c=0
-for i in nums:
-j=str(i)
-x=len(j)
-if x%2==0:
-c=c+1
-\b
-\b
-\b
-\b
-print c
-return c
-findNumbers([12,345,2,6,7896])</t>
-  </si>
-  <si>
-    <t>def sortedSquares(nums):
-squares_list = []
-for i in range(0, len(nums)):
-square = nums[i] * nums[i];
-squares_list.append(square)
-\b
-\b
-sorted_squares_list = sorted(squares_list)
-print sorted_squares_list;
-return sorted_squares_list;
-sortedSquares([-7,-3,2,3,11])</t>
-  </si>
-  <si>
-    <t>[4, 9, 9, 49, 121]</t>
-  </si>
-  <si>
-    <t>hello World</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -163,35 +63,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,16 +90,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,17 +414,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -571,154 +449,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93F2A34-1C16-4446-901E-CEC46348C378}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE6262-2A69-45EE-A27D-9DB311D5BF43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4838223-FD37-45B2-86C9-E55EE0D6E92F}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{FC0FABD3-4E12-485E-AE65-AA915D6AD912}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{2E7B3B1A-FD75-461E-8CFD-71EFFD7E1150}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669D10F0-4DBF-441C-898B-80CEA010B7A1}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="243.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/ExcelData/ExcelData.xlsx
+++ b/src/test/resources/ExcelData/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bassa\eclipse-workspace\Team18_LMSProject\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CD434-E175-41EF-B0C9-F4ED015B84F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF928C8-BC08-4D6C-A49B-157184584E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20895" yWindow="-17715" windowWidth="17280" windowHeight="8925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,17 @@
     <t>password</t>
   </si>
   <si>
-    <t>dsalgoproject81</t>
+    <t>sdetorganizers@gmail.com</t>
   </si>
   <si>
-    <t>Project321@</t>
+    <t>UIHackathon@02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -68,6 +68,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,9 +99,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,13 +423,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -433,16 +441,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D547874A-E38E-4305-AC7C-7FBF412D0D59}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{57641102-0281-4B15-A23E-862BAEE09273}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelData/ExcelData.xlsx
+++ b/src/test/resources/ExcelData/ExcelData.xlsx
@@ -5,24 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bassa\eclipse-workspace\Team18_LMSProject\src\test\resources\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\LMS-UI-Hackathon_Apr24\Team18_LMSProject\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF928C8-BC08-4D6C-A49B-157184584E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0D613-EDCB-41E4-A2B4-04036BF865DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="4" r:id="rId2"/>
     <sheet name="Program" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -34,6 +47,21 @@
   </si>
   <si>
     <t>UIHackathon@02</t>
+  </si>
+  <si>
+    <t>testcase</t>
+  </si>
+  <si>
+    <t>programName</t>
+  </si>
+  <si>
+    <t>deleteprogram_01</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -124,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +192,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -270,7 +298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -412,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,37 +448,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{57641102-0281-4B15-A23E-862BAEE09273}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{57641102-0281-4B15-A23E-862BAEE09273}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -462,7 +496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -470,14 +504,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4838223-FD37-45B2-86C9-E55EE0D6E92F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/ExcelData/ExcelData.xlsx
+++ b/src/test/resources/ExcelData/ExcelData.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bassa\eclipse-workspace\Team18_LMSProject\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF928C8-BC08-4D6C-A49B-157184584E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402800A0-ED29-45D1-817A-36E0E1F09513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="4" r:id="rId2"/>
-    <sheet name="Program" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -30,10 +28,13 @@
     <t>password</t>
   </si>
   <si>
+    <t>UIHackathon@02</t>
+  </si>
+  <si>
     <t>sdetorganizers@gmail.com</t>
   </si>
   <si>
-    <t>UIHackathon@02</t>
+    <t>UIHackathon@021231</t>
   </si>
 </sst>
 </file>
@@ -44,14 +45,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,6 +64,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,20 +96,23 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{5B345234-E3B0-4E93-A87A-3FCB26CF6257}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{8DC6C142-BA07-4238-9135-0B0E32F5FC4A}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5B345234-E3B0-4E93-A87A-3FCB26CF6257}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{8DC6C142-BA07-4238-9135-0B0E32F5FC4A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,16 +424,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -441,43 +445,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{57641102-0281-4B15-A23E-862BAEE09273}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CE2F8421-78DC-4AF2-9736-346BC74B60A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE6262-2A69-45EE-A27D-9DB311D5BF43}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4838223-FD37-45B2-86C9-E55EE0D6E92F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/ExcelData/ExcelData.xlsx
+++ b/src/test/resources/ExcelData/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\LMS-UI-Hackathon_Apr24\Team18_LMSProject\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C21ADD4-2D65-4026-B4F4-1ABA56D22AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833569C-43DC-4531-A134-30622BBEB44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -475,40 +473,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -550,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4838223-FD37-45B2-86C9-E55EE0D6E92F}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelData/ExcelData.xlsx
+++ b/src/test/resources/ExcelData/ExcelData.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\LMS-UI-Hackathon_Apr24\Team18_LMSProject\src\test\resources\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mor/work-anu/git/Febi_ProgramBranch/src/test/resources/ExcelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9833569C-43DC-4531-A134-30622BBEB44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0012EFB-22FF-E346-83E3-235B7744A7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="4" r:id="rId2"/>
-    <sheet name="Batch" sheetId="6" r:id="rId3"/>
-    <sheet name="Program" sheetId="5" r:id="rId4"/>
+    <sheet name="Program" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -59,6 +58,9 @@
     <t>deleteprogram_01</t>
   </si>
   <si>
+    <t>Login</t>
+  </si>
+  <si>
     <t>programDescription</t>
   </si>
   <si>
@@ -80,10 +82,16 @@
     <t>Team18LMSUI01</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>UIHackathon@021231</t>
+    <t>blank data_01</t>
+  </si>
+  <si>
+    <t>EnteredNameOnly</t>
+  </si>
+  <si>
+    <t>EnteredDescOnly</t>
+  </si>
+  <si>
+    <t>EnteredstatusOnly</t>
   </si>
 </sst>
 </file>
@@ -110,12 +118,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,11 +161,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,44 +481,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{CE2F8421-78DC-4AF2-9736-346BC74B60A1}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{57641102-0281-4B15-A23E-862BAEE09273}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -522,84 +529,97 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC2BD82-66A6-4582-BD31-ADA780BBB9EF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4838223-FD37-45B2-86C9-E55EE0D6E92F}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="291" zoomScaleNormal="291" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4838223-FD37-45B2-86C9-E55EE0D6E92F}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelData/ExcelData.xlsx
+++ b/src/test/resources/ExcelData/ExcelData.xlsx
@@ -10,19 +10,20 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF928C8-BC08-4D6C-A49B-157184584E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="4" r:id="rId2"/>
     <sheet name="Program" sheetId="5" r:id="rId3"/>
+    <sheet name="Batch" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>username</t>
   </si>
@@ -34,13 +35,493 @@
   </si>
   <si>
     <t>UIHackathon@02</t>
+  </si>
+  <si>
+    <t>testcase</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>NoOfClasses</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Batch_0667</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>Batch_067</t>
+  </si>
+  <si>
+    <t>AddnotValidBatch</t>
+  </si>
+  <si>
+    <t>AddValidValues</t>
+  </si>
+  <si>
+    <t>AddnotValidDesc</t>
+  </si>
+  <si>
+    <t>Batch_068</t>
+  </si>
+  <si>
+    <t>SDET Automation</t>
+  </si>
+  <si>
+    <t>Batch_069</t>
+  </si>
+  <si>
+    <t>Batch_070</t>
+  </si>
+  <si>
+    <t>Batch_071</t>
+  </si>
+  <si>
+    <t>Batch_072</t>
+  </si>
+  <si>
+    <t>Batch_68</t>
+  </si>
+  <si>
+    <t>Team_10</t>
+  </si>
+  <si>
+    <t>Batch_10</t>
+  </si>
+  <si>
+    <t>Batchteam_18</t>
+  </si>
+  <si>
+    <t>Batch_0177</t>
+  </si>
+  <si>
+    <t>UpdateValidValues</t>
+  </si>
+  <si>
+    <t>UdatedBatch</t>
+  </si>
+  <si>
+    <t>Testbatch</t>
+  </si>
+  <si>
+    <t>Testbatch1</t>
+  </si>
+  <si>
+    <t>Testbatch18</t>
+  </si>
+  <si>
+    <t>Testbatch181</t>
+  </si>
+  <si>
+    <t>AddInvalidvalues</t>
+  </si>
+  <si>
+    <t>AddBlankMandatory</t>
+  </si>
+  <si>
+    <t>SDTET Automation</t>
+  </si>
+  <si>
+    <t>Batch_0067</t>
+  </si>
+  <si>
+    <t>decriptionn</t>
+  </si>
+  <si>
+    <t>Bacch_090</t>
+  </si>
+  <si>
+    <t>Batch_091</t>
+  </si>
+  <si>
+    <t>Batch_090</t>
+  </si>
+  <si>
+    <t>Batch_092</t>
+  </si>
+  <si>
+    <t>Batch_093</t>
+  </si>
+  <si>
+    <t>Batch_094</t>
+  </si>
+  <si>
+    <t>Batch_095</t>
+  </si>
+  <si>
+    <t>Batch_096</t>
+  </si>
+  <si>
+    <t>Batch_097</t>
+  </si>
+  <si>
+    <t>Batch_100</t>
+  </si>
+  <si>
+    <t>Batch_099</t>
+  </si>
+  <si>
+    <t>Batch_101</t>
+  </si>
+  <si>
+    <t>Batch_102</t>
+  </si>
+  <si>
+    <t>Batch18_team</t>
+  </si>
+  <si>
+    <t>Batch18_team2</t>
+  </si>
+  <si>
+    <t>Batch18_Hack</t>
+  </si>
+  <si>
+    <t>Batch18_LMSHACK</t>
+  </si>
+  <si>
+    <t>Batch18_stale</t>
+  </si>
+  <si>
+    <t>Batch18_Ref</t>
+  </si>
+  <si>
+    <t>Team_18_Batch</t>
+  </si>
+  <si>
+    <t>Batch18_Team</t>
+  </si>
+  <si>
+    <t>Batch_New</t>
+  </si>
+  <si>
+    <t>Batch18_new</t>
+  </si>
+  <si>
+    <t>Batch18_up</t>
+  </si>
+  <si>
+    <t>Batch18_updated</t>
+  </si>
+  <si>
+    <t>Batch18_today</t>
+  </si>
+  <si>
+    <t>Batch18_demo</t>
+  </si>
+  <si>
+    <t>Batch18_1234</t>
+  </si>
+  <si>
+    <t>Batch18_6789</t>
+  </si>
+  <si>
+    <t>Batch18_67</t>
+  </si>
+  <si>
+    <t>Batch18_12</t>
+  </si>
+  <si>
+    <t>Batch18_345</t>
+  </si>
+  <si>
+    <t>Batch18_908</t>
+  </si>
+  <si>
+    <t>Batch18_AP</t>
+  </si>
+  <si>
+    <t>Batch18_LG</t>
+  </si>
+  <si>
+    <t>Batch18_LG1</t>
+  </si>
+  <si>
+    <t>Batch18_AP1</t>
+  </si>
+  <si>
+    <t>Batch18_LG2</t>
+  </si>
+  <si>
+    <t>Batch18_AP2</t>
+  </si>
+  <si>
+    <t>Batch18_LG3</t>
+  </si>
+  <si>
+    <t>Batch18_AP3</t>
+  </si>
+  <si>
+    <t>UpdateInvalidValues</t>
+  </si>
+  <si>
+    <t>Batch18_LG01</t>
+  </si>
+  <si>
+    <t>Batch18_AP01</t>
+  </si>
+  <si>
+    <t>Batch_1009</t>
+  </si>
+  <si>
+    <t>Batch18_AP02</t>
+  </si>
+  <si>
+    <t>ClearMandatory</t>
+  </si>
+  <si>
+    <t>Batch_1010</t>
+  </si>
+  <si>
+    <t>Batch18_AP12</t>
+  </si>
+  <si>
+    <t>Batch18_AP14</t>
+  </si>
+  <si>
+    <t>Batch_1012</t>
+  </si>
+  <si>
+    <t>Batch_1014</t>
+  </si>
+  <si>
+    <t>Batch18_AP16</t>
+  </si>
+  <si>
+    <t>Batch18_selenium</t>
+  </si>
+  <si>
+    <t>Batchselenium</t>
+  </si>
+  <si>
+    <t>Batch_0090</t>
+  </si>
+  <si>
+    <t>Batchselenium1</t>
+  </si>
+  <si>
+    <t>Batch18_selenium1</t>
+  </si>
+  <si>
+    <t>Batch_0091</t>
+  </si>
+  <si>
+    <t>Batch_0092</t>
+  </si>
+  <si>
+    <t>Batchselenium190</t>
+  </si>
+  <si>
+    <t>Batch18_selenium190</t>
+  </si>
+  <si>
+    <t>Batch1202</t>
+  </si>
+  <si>
+    <t>Batch18_0209</t>
+  </si>
+  <si>
+    <t>Batch_0093</t>
+  </si>
+  <si>
+    <t>Batch12dec</t>
+  </si>
+  <si>
+    <t>Batch18_02sep</t>
+  </si>
+  <si>
+    <t>Batch_0094</t>
+  </si>
+  <si>
+    <t>Batch12Dec</t>
+  </si>
+  <si>
+    <t>Batch18_02SEP</t>
+  </si>
+  <si>
+    <t>Batch_0095</t>
+  </si>
+  <si>
+    <t>Batch12DEC</t>
+  </si>
+  <si>
+    <t>Batch18_02two</t>
+  </si>
+  <si>
+    <t>Batch_0098</t>
+  </si>
+  <si>
+    <t>Batch0212</t>
+  </si>
+  <si>
+    <t>Batch0209</t>
+  </si>
+  <si>
+    <t>Batch_0099</t>
+  </si>
+  <si>
+    <t>Batch020</t>
+  </si>
+  <si>
+    <t>Batch030</t>
+  </si>
+  <si>
+    <t>Batch_0100</t>
+  </si>
+  <si>
+    <t>Batch025</t>
+  </si>
+  <si>
+    <t>Batch033</t>
+  </si>
+  <si>
+    <t>Batch_0102</t>
+  </si>
+  <si>
+    <t>Batch026</t>
+  </si>
+  <si>
+    <t>Batch034</t>
+  </si>
+  <si>
+    <t>Batch_0103</t>
+  </si>
+  <si>
+    <t>Batch027</t>
+  </si>
+  <si>
+    <t>Batch035</t>
+  </si>
+  <si>
+    <t>Batch_0104</t>
+  </si>
+  <si>
+    <t>Batch028</t>
+  </si>
+  <si>
+    <t>Batch036</t>
+  </si>
+  <si>
+    <t>Batch_0105</t>
+  </si>
+  <si>
+    <t>Batch029</t>
+  </si>
+  <si>
+    <t>Batch037</t>
+  </si>
+  <si>
+    <t>Batch_0106</t>
+  </si>
+  <si>
+    <t>Batch0307</t>
+  </si>
+  <si>
+    <t>Batch038</t>
+  </si>
+  <si>
+    <t>Batch_0107</t>
+  </si>
+  <si>
+    <t>Batch032</t>
+  </si>
+  <si>
+    <t>Batch039</t>
+  </si>
+  <si>
+    <t>Batch_0108</t>
+  </si>
+  <si>
+    <t>Batch040</t>
+  </si>
+  <si>
+    <t>Batch_0109</t>
+  </si>
+  <si>
+    <t>Batch031002</t>
+  </si>
+  <si>
+    <t>Batch040209!</t>
+  </si>
+  <si>
+    <t>Batch_0109#</t>
+  </si>
+  <si>
+    <t>Batch0310#</t>
+  </si>
+  <si>
+    <t>Batch0410$</t>
+  </si>
+  <si>
+    <t>Batch_0108&amp;</t>
+  </si>
+  <si>
+    <t>BatchAP0212</t>
+  </si>
+  <si>
+    <t>BatchLG0978</t>
+  </si>
+  <si>
+    <t>Batch_02009</t>
+  </si>
+  <si>
+    <t>BatchAP0212!</t>
+  </si>
+  <si>
+    <t>BatchLG0978!</t>
+  </si>
+  <si>
+    <t>Batch_020091</t>
+  </si>
+  <si>
+    <t>APbatch</t>
+  </si>
+  <si>
+    <t>LGbatch</t>
+  </si>
+  <si>
+    <t>Btch_020091</t>
+  </si>
+  <si>
+    <t>APbatch02</t>
+  </si>
+  <si>
+    <t>saaibatch</t>
+  </si>
+  <si>
+    <t>Btch_020092</t>
+  </si>
+  <si>
+    <t>APbatch03</t>
+  </si>
+  <si>
+    <t>saaibatch01</t>
+  </si>
+  <si>
+    <t>Btch_020093</t>
+  </si>
+  <si>
+    <t>APbatch04</t>
+  </si>
+  <si>
+    <t>saaibatch02</t>
+  </si>
+  <si>
+    <t>Btch_020094</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -75,6 +556,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,13 +583,47 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="4">
@@ -99,10 +632,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,17 +962,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -462,7 +1002,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -476,8 +1016,127 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="26.21875" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ExcelData/ExcelData.xlsx
+++ b/src/test/resources/ExcelData/ExcelData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mor/work-anu/git/Febi_ProgramBranch/src/test/resources/ExcelData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\LMS-UI-Hackathon_Apr24\Team18_LMSProject\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0012EFB-22FF-E346-83E3-235B7744A7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED762151-EE43-4321-AE5B-2E33C5A5B970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="4" r:id="rId2"/>
     <sheet name="Program" sheetId="5" r:id="rId3"/>
+    <sheet name="Batch" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -92,13 +93,61 @@
   </si>
   <si>
     <t>EnteredstatusOnly</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>NoOfClasses</t>
+  </si>
+  <si>
+    <t>AddnotValidDesc</t>
+  </si>
+  <si>
+    <t>APbatch04</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>AddValidValues</t>
+  </si>
+  <si>
+    <t>saaibatch02</t>
+  </si>
+  <si>
+    <t>SDET Automation</t>
+  </si>
+  <si>
+    <t>AddInvalidvalues</t>
+  </si>
+  <si>
+    <t>AddBlankMandatory</t>
+  </si>
+  <si>
+    <t>Btch_020094</t>
+  </si>
+  <si>
+    <t>UpdateValidValues</t>
+  </si>
+  <si>
+    <t>UdatedBatch</t>
+  </si>
+  <si>
+    <t>UpdateInvalidValues</t>
+  </si>
+  <si>
+    <t>ClearMandatory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -135,6 +184,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,11 +220,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,13 +550,13 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -504,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -529,7 +592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -539,19 +602,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4838223-FD37-45B2-86C9-E55EE0D6E92F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="291" zoomScaleNormal="291" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="16.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -565,7 +628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -579,7 +642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -593,12 +656,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -606,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -614,12 +677,124 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4EE46B-92D4-450C-80B1-A443F89AE3D1}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelData/ExcelData.xlsx
+++ b/src/test/resources/ExcelData/ExcelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\LMS-UI-Hackathon_Apr24\Team18_LMSProject\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED762151-EE43-4321-AE5B-2E33C5A5B970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35D7A8B-BA5A-4B33-AB28-618BE0EEEAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>username</t>
   </si>
@@ -141,6 +141,87 @@
   </si>
   <si>
     <t>ClearMandatory</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>UnderGraduate</t>
+  </si>
+  <si>
+    <t>PostGraduate</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>UserComment</t>
+  </si>
+  <si>
+    <t>addUser_01</t>
+  </si>
+  <si>
+    <t>aphillip</t>
+  </si>
+  <si>
+    <t>neh</t>
+  </si>
+  <si>
+    <t>cristin</t>
+  </si>
+  <si>
+    <t>ohio</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed1/</t>
+  </si>
+  <si>
+    <t>neh@gmail.com</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>iam the userr45</t>
+  </si>
+  <si>
+    <t>addUser_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>xxxx@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -588,12 +669,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE6262-2A69-45EE-A27D-9DB311D5BF43}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -694,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4EE46B-92D4-450C-80B1-A443F89AE3D1}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
